--- a/scores.xlsx
+++ b/scores.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\code\Kaggle-2-IFT6390B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{677504BD-EC02-4060-896A-22229B516763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099575E7-EF5E-4148-8C09-644E5A315A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BCC756C4-63D2-4894-ABBA-932AB4F75355}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BCC756C4-63D2-4894-ABBA-932AB4F75355}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,13 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
-  <si>
-    <t>test_predictions_deit_small.csv</t>
-  </si>
-  <si>
-    <t>Complete · Yorguin José Mantilla Ramos · 12d ago</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Complete · Yorguin José Mantilla Ramos · 13d ago</t>
   </si>
@@ -90,6 +85,33 @@
   </si>
   <si>
     <t>public</t>
+  </si>
+  <si>
+    <t>Simple CNN in pytorch</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Pretrained ResNet-18</t>
+  </si>
+  <si>
+    <t>Hierarchical Multi-Stage ResNet-18 Pipeline</t>
+  </si>
+  <si>
+    <t>CNN from Scratch</t>
+  </si>
+  <si>
+    <t>SVM from Scratch</t>
+  </si>
+  <si>
+    <t>Pretrained ResNet-18 (+Modifications)</t>
+  </si>
+  <si>
+    <t>Pretrained EfficientNet-B0</t>
+  </si>
+  <si>
+    <t>Weighted Voting</t>
   </si>
 </sst>
 </file>
@@ -480,212 +502,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C49E56-3387-4E4D-8478-703083D74807}">
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.1796875" customWidth="1"/>
+    <col min="3" max="3" width="49.26953125" customWidth="1"/>
+    <col min="6" max="6" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D2" s="3">
-        <v>0.74043999999999999</v>
+        <v>0.76458000000000004</v>
       </c>
       <c r="E2" s="3">
-        <v>0.72763</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.76937999999999995</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D3" s="3">
-        <v>0.75451999999999997</v>
+        <v>0.76458000000000004</v>
       </c>
       <c r="E3" s="3">
-        <v>0.75148999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.77534000000000003</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3">
-        <v>0.76458000000000004</v>
+        <v>0.78469999999999995</v>
       </c>
       <c r="E4" s="3">
-        <v>0.76937999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.78527999999999998</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D5" s="3">
-        <v>0.76458000000000004</v>
+        <v>0.48692000000000002</v>
       </c>
       <c r="E5" s="3">
-        <v>0.77534000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.48707</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3">
-        <v>0.78469999999999995</v>
+        <v>0.68611</v>
       </c>
       <c r="E6" s="3">
-        <v>0.78527999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.68986000000000003</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.48692000000000002</v>
+        <v>0.60965000000000003</v>
       </c>
       <c r="E7" s="3">
-        <v>0.48707</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.61431000000000002</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>0.68611</v>
+        <v>0.40442</v>
       </c>
       <c r="E8" s="3">
-        <v>0.68986000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.39562000000000003</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3">
-        <v>0.60965000000000003</v>
+        <v>0.31387999999999999</v>
       </c>
       <c r="E9" s="3">
-        <v>0.61431000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.40442</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.39562000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.31387999999999999</v>
-      </c>
-      <c r="E11" s="3">
         <v>0.34194000000000002</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{DB632CA0-6605-48D3-959E-964497B9BCC4}"/>
-    <hyperlink ref="E11" r:id="rId2" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{D2FD8998-7750-4FA4-9581-01B7C5FBAA95}"/>
-    <hyperlink ref="D11" r:id="rId3" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{B9964C20-D434-4F1C-96A4-4A271D0A2F22}"/>
-    <hyperlink ref="C11" r:id="rId4" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{CDBA468A-8CE4-4C8E-A435-E9898DFC64A8}"/>
-    <hyperlink ref="B11" r:id="rId5" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{80C94459-FB25-4270-8BAA-D0F207B78EB2}"/>
-    <hyperlink ref="E10" r:id="rId6" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{5433C6C2-BCAA-4D6A-8161-5E80A03D3B69}"/>
-    <hyperlink ref="D10" r:id="rId7" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{67F99FE2-7697-4D7E-86EE-2630A8E4CB46}"/>
-    <hyperlink ref="C10" r:id="rId8" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{AA3CE1B4-8518-4A56-9A3C-D6B5EB26F6F9}"/>
-    <hyperlink ref="B10" r:id="rId9" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{E47EFB4C-C2A0-4C73-8D61-94508B5C80AD}"/>
-    <hyperlink ref="E9" r:id="rId10" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{56D2A85C-CA10-4B45-BD55-7AC248275072}"/>
-    <hyperlink ref="D9" r:id="rId11" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{5350940F-8F77-416C-AC97-245BF0DEDA68}"/>
-    <hyperlink ref="C9" r:id="rId12" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{E74D7CA8-0763-47E9-9E88-F783BDB5220E}"/>
-    <hyperlink ref="B9" r:id="rId13" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{31340E16-3049-4858-BF91-AA3D37F37D65}"/>
-    <hyperlink ref="E8" r:id="rId14" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{96E1DF8F-D8ED-4710-84EA-E861D8C55B1F}"/>
-    <hyperlink ref="D8" r:id="rId15" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{1A07D37A-19F1-4253-846E-FF7FEA69F3CF}"/>
-    <hyperlink ref="C8" r:id="rId16" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{09009AFC-BA23-4A93-921A-6AE3CE1C9315}"/>
-    <hyperlink ref="B8" r:id="rId17" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{38470372-7369-4430-9D99-C52AD13D363E}"/>
-    <hyperlink ref="E7" r:id="rId18" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{A0A26814-83B8-4374-9F3F-A3668FA32170}"/>
-    <hyperlink ref="D7" r:id="rId19" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{65B6F0C3-DD04-4523-8154-45758473AC67}"/>
-    <hyperlink ref="C7" r:id="rId20" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{2CBA2455-8888-4D79-9C82-2C2032F8CFCC}"/>
-    <hyperlink ref="B7" r:id="rId21" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{E0493058-970A-4253-A646-0A45E5147851}"/>
-    <hyperlink ref="E6" r:id="rId22" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{59097848-E197-4410-A285-C948C99C7AFD}"/>
-    <hyperlink ref="D6" r:id="rId23" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{901854BB-A139-490A-9A96-82BFD2F9F3C2}"/>
-    <hyperlink ref="C6" r:id="rId24" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{BB7B9E57-44BA-4961-9C93-1524FB8F6288}"/>
-    <hyperlink ref="B6" r:id="rId25" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{CE7AF919-CF72-48F0-9B1C-95CC089BA947}"/>
-    <hyperlink ref="E5" r:id="rId26" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{BDF310EA-E139-433B-9685-3C53F8E1ED12}"/>
-    <hyperlink ref="D5" r:id="rId27" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{009EADBF-5BBD-4C1D-8F41-84AC074C9B61}"/>
-    <hyperlink ref="C5" r:id="rId28" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{2DAA279B-0478-4EF8-BF36-BEFC8491836E}"/>
-    <hyperlink ref="B5" r:id="rId29" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{005E2509-F6E7-4AB4-A090-9557ED68099D}"/>
-    <hyperlink ref="D4" r:id="rId30" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{738A5E7F-7208-4CD1-9B9F-E5420E2E6503}"/>
-    <hyperlink ref="C4" r:id="rId31" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{602A6793-E513-4224-8CC0-0F632A1C2203}"/>
-    <hyperlink ref="B4" r:id="rId32" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{72224E5C-58D4-4872-BA77-026800FAAAE7}"/>
-    <hyperlink ref="E3" r:id="rId33" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{6BF4898A-FD40-4D4C-AF63-88B64BDFA3E6}"/>
-    <hyperlink ref="D3" r:id="rId34" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{C52045BA-EF13-4D0B-9795-980794CC4301}"/>
-    <hyperlink ref="C3" r:id="rId35" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{0C2C12B1-8E5E-4D2C-A65F-7EC6EE91309D}"/>
-    <hyperlink ref="B3" r:id="rId36" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{BD565C46-CC3D-43F4-BCE1-1AE214A86AFE}"/>
-    <hyperlink ref="E2" r:id="rId37" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{230C66DC-04CF-46BE-A616-8713CE185C68}"/>
-    <hyperlink ref="D2" r:id="rId38" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{D61AAE88-21A0-4813-B8BC-45576F5EFA4E}"/>
-    <hyperlink ref="C2" r:id="rId39" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{63A99A40-4EA7-4940-A8D1-C2E1E9328DCB}"/>
-    <hyperlink ref="B2" r:id="rId40" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{F683FCF2-1463-4227-B2A9-B2567B466FBE}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{DB632CA0-6605-48D3-959E-964497B9BCC4}"/>
+    <hyperlink ref="E9" r:id="rId2" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{D2FD8998-7750-4FA4-9581-01B7C5FBAA95}"/>
+    <hyperlink ref="D9" r:id="rId3" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{B9964C20-D434-4F1C-96A4-4A271D0A2F22}"/>
+    <hyperlink ref="C9" r:id="rId4" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{CDBA468A-8CE4-4C8E-A435-E9898DFC64A8}"/>
+    <hyperlink ref="B9" r:id="rId5" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{80C94459-FB25-4270-8BAA-D0F207B78EB2}"/>
+    <hyperlink ref="E8" r:id="rId6" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{5433C6C2-BCAA-4D6A-8161-5E80A03D3B69}"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{67F99FE2-7697-4D7E-86EE-2630A8E4CB46}"/>
+    <hyperlink ref="C8" r:id="rId8" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{AA3CE1B4-8518-4A56-9A3C-D6B5EB26F6F9}"/>
+    <hyperlink ref="B8" r:id="rId9" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{E47EFB4C-C2A0-4C73-8D61-94508B5C80AD}"/>
+    <hyperlink ref="E7" r:id="rId10" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{56D2A85C-CA10-4B45-BD55-7AC248275072}"/>
+    <hyperlink ref="D7" r:id="rId11" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{5350940F-8F77-416C-AC97-245BF0DEDA68}"/>
+    <hyperlink ref="C7" r:id="rId12" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{E74D7CA8-0763-47E9-9E88-F783BDB5220E}"/>
+    <hyperlink ref="B7" r:id="rId13" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{31340E16-3049-4858-BF91-AA3D37F37D65}"/>
+    <hyperlink ref="E6" r:id="rId14" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{96E1DF8F-D8ED-4710-84EA-E861D8C55B1F}"/>
+    <hyperlink ref="D6" r:id="rId15" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{1A07D37A-19F1-4253-846E-FF7FEA69F3CF}"/>
+    <hyperlink ref="C6" r:id="rId16" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{09009AFC-BA23-4A93-921A-6AE3CE1C9315}"/>
+    <hyperlink ref="B6" r:id="rId17" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{38470372-7369-4430-9D99-C52AD13D363E}"/>
+    <hyperlink ref="E5" r:id="rId18" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{A0A26814-83B8-4374-9F3F-A3668FA32170}"/>
+    <hyperlink ref="D5" r:id="rId19" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{65B6F0C3-DD04-4523-8154-45758473AC67}"/>
+    <hyperlink ref="C5" r:id="rId20" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{2CBA2455-8888-4D79-9C82-2C2032F8CFCC}"/>
+    <hyperlink ref="B5" r:id="rId21" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{E0493058-970A-4253-A646-0A45E5147851}"/>
+    <hyperlink ref="E4" r:id="rId22" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{59097848-E197-4410-A285-C948C99C7AFD}"/>
+    <hyperlink ref="D4" r:id="rId23" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{901854BB-A139-490A-9A96-82BFD2F9F3C2}"/>
+    <hyperlink ref="C4" r:id="rId24" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{BB7B9E57-44BA-4961-9C93-1524FB8F6288}"/>
+    <hyperlink ref="B4" r:id="rId25" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{CE7AF919-CF72-48F0-9B1C-95CC089BA947}"/>
+    <hyperlink ref="E3" r:id="rId26" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{BDF310EA-E139-433B-9685-3C53F8E1ED12}"/>
+    <hyperlink ref="D3" r:id="rId27" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{009EADBF-5BBD-4C1D-8F41-84AC074C9B61}"/>
+    <hyperlink ref="C3" r:id="rId28" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{2DAA279B-0478-4EF8-BF36-BEFC8491836E}"/>
+    <hyperlink ref="B3" r:id="rId29" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{005E2509-F6E7-4AB4-A090-9557ED68099D}"/>
+    <hyperlink ref="D2" r:id="rId30" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{738A5E7F-7208-4CD1-9B9F-E5420E2E6503}"/>
+    <hyperlink ref="C2" r:id="rId31" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{602A6793-E513-4224-8CC0-0F632A1C2203}"/>
+    <hyperlink ref="B2" r:id="rId32" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{72224E5C-58D4-4872-BA77-026800FAAAE7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB93C2C-1E91-4D5A-83E7-4FC2BE34E018}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>0.76937999999999995</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>0.77534000000000003</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>0.78527999999999998</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>0.48707</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>0.68986000000000003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>0.61431000000000002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>0.39562000000000003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>0.34194000000000002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{EA1F4182-4BDC-4E45-BF87-AD64A0B56C92}"/>
+    <hyperlink ref="A9" r:id="rId2" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{6C4A3E5C-E32C-4BBE-9184-761FABE23BEF}"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{ABABB4A7-56BC-4921-AF6B-892CA2EBD568}"/>
+    <hyperlink ref="A7" r:id="rId4" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{F0916906-6F36-4FAC-B4B2-8329EF138604}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{0CBFB560-63A0-48DA-BF70-50FB7EC73E85}"/>
+    <hyperlink ref="A5" r:id="rId6" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{C784C181-B647-4DC1-B40C-F6245CD04B69}"/>
+    <hyperlink ref="A4" r:id="rId7" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{60D8E044-892D-4575-9706-A888844B06EC}"/>
+    <hyperlink ref="A3" r:id="rId8" display="https://www.kaggle.com/competitions/ift3395-ift6390-identification-maladies-retine/submissions" xr:uid="{F5008C9E-6F94-4703-BB46-84A86C166FDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
